--- a/data/trans_bre/P53_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,05</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>20,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,78%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>72,1%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 17,58</t>
+          <t>-8,34; 22,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 16,95</t>
+          <t>-4,19; 23,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 21,36</t>
+          <t>-7,22; 21,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 17,89</t>
+          <t>-5,1; 18,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 52,0</t>
+          <t>4,57; 32,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 48,45</t>
+          <t>-17,0; 77,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 57,24</t>
+          <t>-9,07; 83,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 49,02</t>
+          <t>-13,88; 61,21</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 50,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,4; 185,92</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,47</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,5%</t>
+          <t>48,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>25,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22,8%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 18,48</t>
+          <t>-1,07; 17,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 16,52</t>
+          <t>-3,01; 14,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 13,95</t>
+          <t>-2,42; 13,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 11,4</t>
+          <t>-3,85; 12,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,99; 104,7</t>
+          <t>-5,23; 10,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 92,03</t>
+          <t>-8,52; 119,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 73,84</t>
+          <t>-14,92; 84,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 57,32</t>
+          <t>-8,79; 77,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,91; 59,64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-28,1; 88,16</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,58%</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>-13,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>-32,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36,37%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,05; 8,52</t>
+          <t>-7,37; 4,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,36</t>
+          <t>-11,65; 1,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 7,28</t>
+          <t>-5,75; 6,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 6,74</t>
+          <t>-4,05; 7,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 173,61</t>
+          <t>-2,56; 4,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 99,5</t>
+          <t>-78,51; 138,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 198,43</t>
+          <t>-70,03; 35,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 140,55</t>
+          <t>-50,3; 174,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-35,69; 145,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-58,66; 401,22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,36</t>
+          <t>15,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>14,39</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>59,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>57,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,15%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 14,16</t>
+          <t>9,2; 19,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 11,19</t>
+          <t>6,84; 19,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 11,26</t>
+          <t>3,41; 24,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 9,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 76,49</t>
+          <t>-7,44; 7,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 58,77</t>
+          <t>33,44; 100,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 62,02</t>
+          <t>27,23; 104,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 46,25</t>
+          <t>10,84; 119,5</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-36,17; 55,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,36</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,42</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50,5%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,97%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 14,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 11,22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 11,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 9,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 8,68</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27,91; 76,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10,88; 58,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 59,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 46,36</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 68,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P53_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P53_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,78</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,01</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,17</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>18,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,59%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>23,85%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,1%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>18,78%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>72,1%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.780195871970585</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.285074542043091</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.0359275929924</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.41188535083583</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>16.38306524828941</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1759176824969222</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1868550099147775</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2329882884608372</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.1923659902002355</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.6550616993363065</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; 22,47</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,19; 23,83</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,22; 21,76</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 18,58</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 32,05</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-17,0; 77,52</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-9,07; 83,86</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-13,88; 61,21</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 50,66</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>12,4; 185,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.338152843409954</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-6.427218722066633</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.35058928945022</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.652641339550047</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>2.768202334081403</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.170003554235258</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.1334030253868881</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.08688631015045041</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.08666764039646607</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.07409862807520949</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.46799850157388</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.33734381236692</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>22.68740174460992</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.17211353544715</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>30.01628846997726</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.7752482971611478</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.7193177711177494</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.6850797282400233</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5151222851305951</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.771211677152978</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,54</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,85</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,97</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,27</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,64</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>48,37%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>32,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>25,85%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>16,7%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>22,8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 17,83</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 14,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 13,78</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,85; 12,17</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 10,99</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 119,36</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,92; 84,23</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 77,39</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-12,91; 59,64</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-28,1; 88,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.539260346196841</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.549078224913869</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.499011375177195</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.147779403363411</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>3.538922517355694</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.4837209755668766</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2525404729426612</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2352840815012216</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1631747118261438</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2208625718596955</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,75</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-13,58%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-32,01%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>16,87%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>24,2%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>36,37%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.070716098310097</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.304590897246192</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.704681492444706</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.865506052059734</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5.529534097305774</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.08515144353460266</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1630982514164405</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1008467150786733</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1310851703145717</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2774109561298755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,37; 4,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,65; 1,91</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 6,07</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,05; 7,02</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 4,15</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-78,51; 138,47</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-70,03; 35,79</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-50,3; 174,84</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-35,69; 145,46</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-58,66; 401,22</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.82523719829655</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.05404045800485</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.52476508470154</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.89458192479577</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>11.13023616197139</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.193588398253376</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7674041155546488</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7202572503621146</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5892570181905235</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9306067412311665</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>15,13</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,4</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,39</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>68,35%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>59,75%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>57,66%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.7487053454026129</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.461771222408165</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.8980938231673841</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.81966284959194</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.908945126893309</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1357807812091847</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3115701514357062</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1279386144105538</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2245977295292683</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3097490579962444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>9,2; 19,7</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 19,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 24,31</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 7,07</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>33,44; 100,09</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>27,23; 104,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10,84; 119,5</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-36,17; 55,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.367546666538519</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.48085084943411</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.198391227844753</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.052274050351211</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-2.653852686268411</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7851130603141525</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6920412444617999</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5265899153719912</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3520186116005427</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5659474437552096</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.007453621135699</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.922781633493269</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6.156336115557956</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.784719152220148</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.033963393985027</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.384723556327306</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3079131897113011</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.656318758732147</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.356813950218735</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>4.066002432962531</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,42</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,73</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>50,5%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>33,51%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29,97%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>20,55%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>31,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>6,52; 14,04</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 11,22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 11,03</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 9,16</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 8,68</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>27,91; 76,21</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>10,88; 58,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,33; 59,54</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 46,36</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 68,68</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>4.640099060285058</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.713383477226991</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.233655962092413</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.772682189253627</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.02009307786115</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2564887451882735</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1302807148483566</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2519617223662505</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2071654743623058</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4562370390206628</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9805773528305451</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.97953725861605</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1830405939526319</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.657254752788905</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.6237723659531397</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.05190187370333293</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1219727869595537</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0115316061191617</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.02753537796774594</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.02089924387195504</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.99987012707046</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.3240699792298</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.940918690573405</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.243489593818783</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.79367074031166</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.6653791350879369</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4061697366794874</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5555120854346582</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4567095064558396</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9633119508826617</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
